--- a/docs/PST1/PST1_13.11.2024_output.xlsx
+++ b/docs/PST1/PST1_13.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731601847.0155828</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731601848.254569</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731601847.0155828.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731601848.254569.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>134.86</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>134.82</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.04000000000002046</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731601850.3247023</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731601870.731334</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731601850.3247023.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731601870.731334.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>134.88</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>136.25</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-1.370000000000005</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-1.02</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731601870.7462566</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731601870.7462566.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731601870.7462566.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>136.25</v>
       </c>
-      <c r="J5" t="n">
-        <v>136.25</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>136.39</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1399999999999864</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731601874.6516738</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731601877.3003657</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731601874.6516738.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731601877.3003657.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6976.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6991</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>14.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731601877.314327</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731601888.337227</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731601877.314327.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731601888.337227.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6991</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7013.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-22.5</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731601888.3512268</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731601890.1114752</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731601888.3512268.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731601890.1114752.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>7013.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7019.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>6</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731601891.7701323</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731601891.936445</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731601891.7701323.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731601891.936445.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>7020</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>7024</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>4</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731601898.2133498</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731601899.8021212</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601898.2133498.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601899.8021212.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>486.75</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>485.85</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.8999999999999773</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731601899.8173075</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731601900.3251126</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601899.8173075.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601900.3251126.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>485.85</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>487.55</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.699999999999989</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731601903.634341</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731601906.1462064</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601903.634341.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731601906.1462064.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>489.55</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>489.8</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.25</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1051,95 +1127,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731601919.5511475</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731601919.5511475.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731601919.5511475.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>490.85</v>
       </c>
-      <c r="J13" t="n">
-        <v>490.85</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>493.35</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731601927.6082802</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731601933.9535072</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731601927.6082802.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731601933.9535072.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>926.8</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>926.8</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731601933.9684722</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731601936.7736099</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731601933.9684722.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731601936.7736099.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>926.8</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>928.8</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>2</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731601937.4325233</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731601939.5302749</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731601937.4325233.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731601939.5302749.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>928.6</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>926.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-2</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -1251,95 +1351,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731601944.8241422</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731601944.8241422.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731601944.8241422.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>929.6</v>
       </c>
-      <c r="J17" t="n">
-        <v>929.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>934.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-5.199999999999932</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731601950.7374804</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731601951.792195</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601950.7374804.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601951.792195.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>37.745</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>37.87</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.125</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -1347,51 +1459,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731601951.807157</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731601953.382763</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601951.807157.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601953.382763.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>37.87</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>37.925</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.05499999999999972</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731601954.3202505</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731601955.0423944</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601954.3202505.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601955.0423944.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>37.925</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>38.105</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -1451,51 +1575,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731601955.7222147</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731601955.7731352</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601955.7222147.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601955.7731352.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>38.165</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>38.36</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1950000000000003</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -1503,51 +1633,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731601956.874157</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731601959.6199365</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601956.874157.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601959.6199365.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>38.305</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>38.335</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1555,51 +1691,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731601963.4978874</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731601965.0632167</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601963.4978874.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601965.0632167.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>38.285</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>38.15</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.134999999999998</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -1607,51 +1749,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731601969.4623709</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731601971.725548</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601969.4623709.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731601971.725548.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>38.225</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>38.415</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.1899999999999977</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -1659,95 +1807,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731601972.5570748</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731601972.5570748.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731601972.5570748.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>38.4</v>
       </c>
-      <c r="J25" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>38.405</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.005000000000002558</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731601975.0941882</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731601975.5490181</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731601975.0941882.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731601975.5490181.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1233.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1231.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2.399999999999864</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1755,51 +1915,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731601975.5650413</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731601976.8782032</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731601975.5650413.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731601976.8782032.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1231.2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1234.4</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1807,51 +1973,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731601977.152465</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731601978.6775804</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731601977.152465.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731601978.6775804.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1232.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1231</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-1.200000000000045</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -1859,51 +2031,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731601982.5468702</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731601985.533119</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731601982.5468702.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731601985.533119.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1236.4</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1235.4</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-1</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1911,95 +2089,107 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731601989.1231031</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731601989.1231031.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731601989.1231031.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1229.4</v>
       </c>
-      <c r="J30" t="n">
-        <v>1229.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1233.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.799999999999955</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731602001.8764215</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731602003.2876275</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731602001.8764215.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731602003.2876275.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>81</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2007,51 +2197,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731602007.7706184</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731602009.855069</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731602007.7706184.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731602009.855069.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>81.15000000000001</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>81.05</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.1000000000000085</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -2059,51 +2255,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731602013.5853555</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731602016.8853939</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731602013.5853555.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731602016.8853939.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>80.93000000000001</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>80.23999999999999</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.6900000000000119</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.8500000000000001</v>
       </c>
     </row>
@@ -2111,51 +2313,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731602016.9003737</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731602018.4046822</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731602016.9003737.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731602018.4046822.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>80.23999999999999</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>80.20999999999999</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2163,51 +2371,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731602019.7445338</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731602022.855129</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731602019.7445338.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731602022.855129.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>80.2</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>80.31</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -2215,51 +2429,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731602025.7673938</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731602026.5621045</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731602025.7673938.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731602026.5621045.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>14.15</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>14.146</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.003999999999999559</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2267,51 +2487,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731602026.5770643</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731602028.5863626</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731602026.5770643.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731602028.5863626.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>14.146</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>14.184</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.03799999999999848</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2319,51 +2545,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731602029.3836374</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731602030.425942</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731602029.3836374.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731602030.425942.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>14.212</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>14.226</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.01400000000000112</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2371,51 +2603,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731602032.6581407</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731602035.1032443</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731602032.6581407.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731602035.1032443.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>14.249</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>14.195</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.05400000000000027</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -2423,51 +2661,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731602039.9432468</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731602041.2752542</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731602039.9432468.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731602041.2752542.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>14.251</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>14.138</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.1129999999999995</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.79</v>
       </c>
     </row>
@@ -2475,51 +2719,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731602042.965088</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731602048.4257782</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731602042.965088.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731602048.4257782.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>14.183</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>14.233</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.05000000000000071</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2527,95 +2777,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731602048.4417357</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731602048.4417357.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731602048.4417357.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>14.233</v>
       </c>
-      <c r="J42" t="n">
-        <v>14.233</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>14.369</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.1359999999999992</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731602051.0547862</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731602053.5913472</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731602051.0547862.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731602053.5913472.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>104.34</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>104.09</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.25</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2623,51 +2885,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731602054.3189237</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731602056.6793933</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731602054.3189237.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731602056.6793933.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>104.29</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>105.25</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.9599999999999937</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.9199999999999999</v>
       </c>
     </row>
@@ -2675,51 +2943,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731602058.5482917</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731602060.4063172</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731602058.5482917.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731602060.4063172.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>105.35</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>105.12</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.2299999999999898</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2727,51 +3001,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731602060.4212775</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731602061.9180074</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731602060.4212775.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731602061.9180074.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>105.12</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>105.5</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2779,51 +3059,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731602063.7955914</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731602069.8191292</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731602063.7955914.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731602069.8191292.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>105.69</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>104.92</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.769999999999996</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.73</v>
       </c>
     </row>
@@ -2831,95 +3117,107 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731602075.70352</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731602075.70352.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731602075.70352.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>105.91</v>
       </c>
-      <c r="J48" t="n">
-        <v>105.91</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>106.15</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.2400000000000091</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731602076.3677044</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731602089.1003563</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602076.3677044.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602089.1003563.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>347.82</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>351.01</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-3.189999999999998</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.9199999999999999</v>
       </c>
     </row>
@@ -2927,51 +3225,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731602089.1153069</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731602090.8684978</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602089.1153069.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602090.8684978.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>351.01</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>349.26</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-1.75</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -2979,95 +3283,107 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731602095.9730616</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731602095.9730616.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731602095.9730616.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>351.96</v>
       </c>
-      <c r="J51" t="n">
-        <v>351.96</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>351.71</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731602100.555135</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731602103.0321395</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602100.555135.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602103.0321395.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>2777.45</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>2777.35</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.09999999999990905</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -3075,51 +3391,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731602108.25152</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731602109.187039</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602108.25152.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602109.187039.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>2786.65</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>2787.05</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.4000000000000909</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3127,51 +3449,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731602118.1933625</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731602120.0132115</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602118.1933625.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602120.0132115.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>2774.45</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>2782.55</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>8.100000000000364</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3179,51 +3507,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731602120.0301757</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731602122.6038768</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602120.0301757.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602122.6038768.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>2782.55</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>2789.5</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-6.949999999999818</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -3231,95 +3565,107 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731602123.217011</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731602123.217011.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731602123.217011.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>2791.15</v>
       </c>
-      <c r="J56" t="n">
-        <v>2791.15</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>2795.2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-4.049999999999727</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731602127.345937</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731602130.9708626</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602127.345937.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602130.9708626.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>591.2</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>595</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -3327,51 +3673,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731602130.9877894</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731602135.2147171</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602130.9877894.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602135.2147171.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>595</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>594.5</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.5</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3379,51 +3731,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731602135.2303293</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731602137.7329934</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602135.2303293.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602137.7329934.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>594.5</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>590.9</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-3.600000000000023</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -3431,51 +3789,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731602140.6128669</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731602144.2449784</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602140.6128669.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602144.2449784.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>588.7</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>588.2</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3483,51 +3847,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731602144.2608538</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731602144.4639854</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602144.2608538.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602144.4639854.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>588.2</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>588.1</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3535,51 +3905,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731602145.243136</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731602146.3710878</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602145.243136.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/TATN1731602146.3710878.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>590.1</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>589.7</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3641,16 +4017,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01000000000000512</v>
+        <v>0.005000000000002558</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001250000000000639</v>
+        <v>0.0006250000000003197</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3663,19 +4039,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.06099999999999994</v>
+        <v>-0.1969999999999992</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.008714285714285706</v>
+        <v>-0.02814285714285703</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.42</v>
+        <v>-1.38</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.06</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="4">
@@ -3685,19 +4061,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8700000000000045</v>
+        <v>-1.110000000000014</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1450000000000008</v>
+        <v>-0.1850000000000023</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.83</v>
+        <v>-1.06</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.14</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="5">
@@ -3729,19 +4105,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.399999999999864</v>
+        <v>7.199999999999818</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6799999999999727</v>
+        <v>1.439999999999964</v>
       </c>
       <c r="E6" t="n">
-        <v>0.27</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -3751,19 +4127,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.450000000000728</v>
+        <v>-2.599999999999</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2900000000001455</v>
+        <v>-0.5199999999998</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04999999999999999</v>
+        <v>-0.1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="8">
@@ -3817,19 +4193,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-5.199999999999932</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-1.299999999999983</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-0.5599999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="11">
@@ -3839,19 +4215,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.849999999999966</v>
+        <v>0.3499999999999659</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7124999999999915</v>
+        <v>0.08749999999999147</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.07000000000000006</v>
       </c>
       <c r="F11" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
@@ -3861,19 +4237,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.939999999999998</v>
+        <v>-4.689999999999998</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.646666666666666</v>
+        <v>-1.563333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.42</v>
+        <v>-1.35</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.47</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="13">
@@ -3883,19 +4259,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.329999999999984</v>
+        <v>-1.189999999999998</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.443333333333328</v>
+        <v>-0.3966666666666659</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.99</v>
+        <v>-0.89</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.33</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="14">
